--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/avg_0.003_scores.xlsx
@@ -142,13 +142,13 @@
     <t>join</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>community</t>
   </si>
   <si>
     <t>hand</t>
@@ -1350,25 +1350,25 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.762114537444934</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L26">
         <v>173</v>
       </c>
       <c r="M26">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1506,25 +1506,25 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.656441717791411</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L32">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="M32">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1532,25 +1532,25 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.6538461538461539</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L33">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1558,25 +1558,25 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.6521739130434783</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="10:17">
